--- a/Frontend/public/plantilla.xlsx
+++ b/Frontend/public/plantilla.xlsx
@@ -38,7 +38,7 @@
     <t>Semestre</t>
   </si>
   <si>
-    <t>Especialidad</t>
+    <t>Grupo</t>
   </si>
   <si>
     <t>Identificador</t>
@@ -683,13 +683,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1862,7 +1861,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="16" customHeight="1" outlineLevelCol="4"/>
@@ -1895,56 +1894,55 @@
     <row r="2" ht="15.35" customHeight="1" spans="1:4">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" ht="15.35" customHeight="1" spans="1:4">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" ht="15.35" customHeight="1" spans="1:4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" ht="15.35" customHeight="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" ht="15.35" customHeight="1" spans="1:4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" ht="15.35" customHeight="1" spans="1:4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" ht="15.35" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" ht="15.35" customHeight="1" spans="1:4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" ht="15.35" customHeight="1" spans="1:4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
